--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LKLAB\OneDrive - knu.ac.kr\LAB\Study\Python\Auto-Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LKLAB\OneDrive - knu.ac.kr\LAB\Study\Python\AutoTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_B8996B79FDD725F516D936DF0258D304A7495B9C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C0A65DED-10E3-4EDF-AA06-0716E3F86C52}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_B899E111BCDC57F416D936DF0258D304A7495B9C" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B0221104-DB23-4EAA-9E88-3E127046A092}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19104" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="648" windowWidth="19104" windowHeight="11352" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -78,6 +78,13 @@
 Valence: 2</t>
   </si>
   <si>
+    <t>F
+_x000D_
+Name: fluorine
+AtomicNumber: 9
+Valence: 1</t>
+  </si>
+  <si>
     <t>Ne
 _x000D_
 Name: neon
@@ -575,6 +582,13 @@
 Valence: Missing["Unknown"]</t>
   </si>
   <si>
+    <t>Mt
+_x000D_
+Name: meitnerium
+AtomicNumber: 109
+Valence: Missing["Unknown"]</t>
+  </si>
+  <si>
     <t>Ds
 _x000D_
 Name: darmstadtium
@@ -589,6 +603,13 @@
 Valence: Missing["Unknown"]</t>
   </si>
   <si>
+    <t>Cn
+_x000D_
+Name: copernicium
+AtomicNumber: 112
+Valence: Missing["Unknown"]</t>
+  </si>
+  <si>
     <t>Nh
 _x000D_
 Name: nihonium
@@ -617,6 +638,20 @@
 Valence: Missing["Unknown"]</t>
   </si>
   <si>
+    <t>Ts
+_x000D_
+Name: tennessine
+AtomicNumber: 117
+Valence: Missing["Unknown"]</t>
+  </si>
+  <si>
+    <t>Og
+_x000D_
+Name: oganesson
+AtomicNumber: 118
+Valence: Missing["Unknown"]</t>
+  </si>
+  <si>
     <t>La
 _x000D_
 Name: lanthanum
@@ -811,41 +846,6 @@
 Name: nobelium
 AtomicNumber: 102
 Valence: 3</t>
-  </si>
-  <si>
-    <t>F
-Name: fluorine
-AtomicNumber: 9
-Valence: 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mt
-Name: meitnerium
-AtomicNumber: 109
-Valence: Missing["Unknown"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ts
-Name: tennessine
-AtomicNumber: 117
-Valence: Missing["Unknown"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cn
-Name: copernicium
-AtomicNumber: 112
-Valence: Missing["Unknown"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Og
-Name: oganesson
-AtomicNumber: 118
-Valence: Missing["Unknown"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1195,78 +1195,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="B2:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K6" zoomScale="65" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="44" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="19" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
+    <row r="2" spans="2:19" ht="87" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="2:19" ht="87" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1280,377 +1234,353 @@
         <v>7</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="87" x14ac:dyDescent="0.4">
+      <c r="D10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="O10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="87" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>